--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -996,10 +1008,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="2" t="s">
+      <c r="J30" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1043,28 +1055,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="2">
+      <c r="A32" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="2">
+      <c r="C32" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="2">
+      <c r="E32" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="2">
+      <c r="F32" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="2">
+      <c r="G32" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="2">
+      <c r="H32" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1089,28 +1101,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="2">
+      <c r="I34" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1169,10 +1181,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1216,28 +1228,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1262,28 +1274,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1371,10 +1383,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="2" t="s">
+      <c r="J43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1418,28 +1430,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="2">
+      <c r="C45" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1464,28 +1476,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1573,10 +1585,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1620,28 +1632,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1666,28 +1678,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1775,10 +1787,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="2" t="s">
+      <c r="J57" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1822,28 +1834,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="2">
+      <c r="A59" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="2">
+      <c r="C59" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="2">
+      <c r="E59" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="2">
+      <c r="F59" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="2">
+      <c r="G59" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="2">
+      <c r="H59" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1868,28 +1880,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="2">
+      <c r="B61" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="2">
+      <c r="C61" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="2">
+      <c r="D61" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="2">
+      <c r="E61" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="2">
+      <c r="F61" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="2">
+      <c r="G61" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="2">
+      <c r="H61" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="2">
+      <c r="I61" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1977,10 +1989,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2024,28 +2036,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2070,28 +2082,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2179,10 +2191,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2226,28 +2238,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2272,28 +2284,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2410,10 +2422,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2457,28 +2469,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2503,28 +2515,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2641,10 +2653,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2688,28 +2700,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2734,28 +2746,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2843,10 +2855,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="2" t="s">
+      <c r="J94" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2890,28 +2902,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="2">
+      <c r="A96" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="2">
+      <c r="C96" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2936,28 +2948,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="2">
+      <c r="C98" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="2">
+      <c r="D98" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="2">
+      <c r="I98" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3074,10 +3086,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3121,28 +3133,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3167,28 +3179,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3305,10 +3317,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="2" t="s">
+      <c r="J110" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3352,28 +3364,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="2">
+      <c r="A112" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="2">
+      <c r="C112" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3398,28 +3410,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="2">
+      <c r="C114" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="2">
+      <c r="D114" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="2">
+      <c r="I114" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3507,10 +3519,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3554,28 +3566,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3600,28 +3612,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3911,10 +3923,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3958,28 +3970,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4004,28 +4016,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4084,10 +4096,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4131,28 +4143,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4177,28 +4189,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4286,10 +4298,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="2" t="s">
+      <c r="J144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4333,28 +4345,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="2">
+      <c r="A146" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="2">
+      <c r="C146" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4379,28 +4391,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="2">
+      <c r="C148" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="2">
+      <c r="D148" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="2">
+      <c r="I148" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4488,10 +4500,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4535,28 +4547,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4581,28 +4593,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4690,10 +4702,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="2" t="s">
+      <c r="J158" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4737,28 +4749,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="2">
+      <c r="A160" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="2">
+      <c r="B160" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="2">
+      <c r="C160" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="2">
+      <c r="E160" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="2">
+      <c r="F160" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="2">
+      <c r="G160" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="2">
+      <c r="H160" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4783,28 +4795,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="2">
+      <c r="C162" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="2">
+      <c r="D162" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="2">
+      <c r="I162" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4863,10 +4875,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="2" t="s">
+      <c r="J164" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4910,28 +4922,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="2">
+      <c r="A166" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="2">
+      <c r="C166" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4956,28 +4968,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="2">
+      <c r="C168" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="2">
+      <c r="D168" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="2">
+      <c r="I168" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5036,10 +5048,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="2" t="s">
+      <c r="J170" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5083,28 +5095,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="2">
+      <c r="A172" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="2">
+      <c r="B172" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="2">
+      <c r="C172" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="2">
+      <c r="E172" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="2">
+      <c r="F172" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="2">
+      <c r="G172" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="2">
+      <c r="H172" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5129,28 +5141,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="2">
+      <c r="C174" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="2">
+      <c r="D174" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="2">
+      <c r="I174" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5209,10 +5221,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5256,28 +5268,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5302,28 +5314,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5382,10 +5394,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="2" t="s">
+      <c r="J182" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5429,28 +5441,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="2">
+      <c r="A184" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="2">
+      <c r="C184" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5475,28 +5487,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="2">
+      <c r="C186" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="2">
+      <c r="D186" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="2">
+      <c r="I186" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5555,10 +5567,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="2" t="s">
+      <c r="J188" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5602,28 +5614,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="2">
+      <c r="A190" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="2">
+      <c r="B190" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="2">
+      <c r="C190" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="2">
+      <c r="E190" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="2">
+      <c r="F190" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="2">
+      <c r="G190" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="2">
+      <c r="H190" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5648,28 +5660,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="2">
+      <c r="I192" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5757,10 +5769,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5804,28 +5816,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5850,28 +5862,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5988,10 +6000,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6035,28 +6047,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6081,28 +6093,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6190,10 +6202,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="2" t="s">
+      <c r="J210" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6237,28 +6249,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="2">
+      <c r="A212" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="2">
+      <c r="C212" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6283,28 +6295,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="2">
+      <c r="B214" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="2">
+      <c r="C214" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="2">
+      <c r="D214" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="2">
+      <c r="E214" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="2">
+      <c r="F214" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="2">
+      <c r="G214" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="2">
+      <c r="H214" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="2">
+      <c r="I214" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6392,10 +6404,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="2" t="s">
+      <c r="J217" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6439,28 +6451,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="2">
+      <c r="A219" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="2">
+      <c r="B219" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="2">
+      <c r="C219" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="2">
+      <c r="E219" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="2">
+      <c r="F219" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="2">
+      <c r="G219" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="2">
+      <c r="H219" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6485,28 +6497,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="2">
+      <c r="C221" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="2">
+      <c r="D221" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="2">
+      <c r="I221" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6594,10 +6606,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6641,28 +6653,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6687,28 +6699,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6796,10 +6808,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="2" t="s">
+      <c r="J231" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6843,28 +6855,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="2">
+      <c r="A233" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="2">
+      <c r="C233" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6889,28 +6901,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="2">
+      <c r="C235" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="2">
+      <c r="D235" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="2">
+      <c r="I235" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7056,10 +7068,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="2" t="s">
+      <c r="J240" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7103,28 +7115,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="2">
+      <c r="A242" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="2">
+      <c r="C242" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7149,28 +7161,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="2">
+      <c r="C244" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="2">
+      <c r="D244" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="2">
+      <c r="I244" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7287,10 +7299,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="2" t="s">
+      <c r="J248" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7334,28 +7346,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="2">
+      <c r="A250" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="2">
+      <c r="B250" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="2">
+      <c r="C250" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="2">
+      <c r="E250" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="2">
+      <c r="F250" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="2">
+      <c r="G250" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="2">
+      <c r="H250" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7380,28 +7392,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="2">
+      <c r="C252" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="2">
+      <c r="D252" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="2">
+      <c r="I252" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7489,10 +7501,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="2" t="s">
+      <c r="J255" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7536,28 +7548,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="2">
+      <c r="A257" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="2">
+      <c r="B257" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="2">
+      <c r="C257" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="2">
+      <c r="E257" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="2">
+      <c r="F257" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="2">
+      <c r="G257" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="2">
+      <c r="H257" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7582,28 +7594,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="2">
+      <c r="C259" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="2">
+      <c r="D259" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="2">
+      <c r="I259" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7662,10 +7674,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7709,28 +7721,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7755,28 +7767,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7980,10 +7992,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="2" t="s">
+      <c r="J272" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8027,28 +8039,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="2">
+      <c r="A274" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="2">
+      <c r="C274" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8073,28 +8085,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="2">
+      <c r="B276" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="2">
+      <c r="C276" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="2">
+      <c r="D276" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="2">
+      <c r="E276" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="2">
+      <c r="F276" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="2">
+      <c r="G276" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="2">
+      <c r="H276" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="2">
+      <c r="I276" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8211,10 +8223,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8258,28 +8270,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8304,28 +8316,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8384,10 +8396,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8431,28 +8443,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8477,28 +8489,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8557,10 +8569,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8604,28 +8616,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8650,28 +8662,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8730,10 +8742,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8777,28 +8789,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8823,28 +8835,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8903,10 +8915,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8950,28 +8962,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8996,28 +9008,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9105,10 +9117,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="2" t="s">
+      <c r="J311" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9152,28 +9164,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="2">
+      <c r="A313" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="2">
+      <c r="B313" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="2">
+      <c r="C313" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="2">
+      <c r="E313" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="2">
+      <c r="F313" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="2">
+      <c r="G313" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="2">
+      <c r="H313" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9198,28 +9210,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="2">
+      <c r="B315" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="2">
+      <c r="C315" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="2">
+      <c r="D315" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="2">
+      <c r="E315" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="2">
+      <c r="F315" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="2">
+      <c r="G315" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="2">
+      <c r="H315" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="2">
+      <c r="I315" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9278,10 +9290,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="2" t="s">
+      <c r="J317" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9325,28 +9337,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="2">
+      <c r="A319" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="2">
+      <c r="B319" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="2">
+      <c r="C319" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="2">
+      <c r="E319" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="2">
+      <c r="F319" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="2">
+      <c r="G319" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="2">
+      <c r="H319" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9371,28 +9383,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="2">
+      <c r="B321" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="2">
+      <c r="C321" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="2">
+      <c r="D321" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="2">
+      <c r="E321" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="2">
+      <c r="F321" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="2">
+      <c r="G321" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="2">
+      <c r="H321" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="2">
+      <c r="I321" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9451,10 +9463,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="2" t="s">
+      <c r="J323" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9498,28 +9510,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="2">
+      <c r="A325" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="2">
+      <c r="C325" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9544,28 +9556,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="2">
+      <c r="B327" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="2">
+      <c r="C327" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="2">
+      <c r="D327" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="2">
+      <c r="E327" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="2">
+      <c r="F327" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="2">
+      <c r="G327" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="2">
+      <c r="H327" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="2">
+      <c r="I327" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9624,10 +9636,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9671,28 +9683,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9717,28 +9729,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9797,10 +9809,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9844,28 +9856,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9890,28 +9902,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9970,10 +9982,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10017,28 +10029,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10063,28 +10075,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10143,10 +10155,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10190,28 +10202,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10236,28 +10248,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10316,10 +10328,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10363,28 +10375,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10409,28 +10421,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10518,10 +10530,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10565,28 +10577,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10611,28 +10623,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10691,10 +10703,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11640" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,53 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="13">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -143,12 +183,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -171,26 +219,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true">
-      <c r="A1" t="s" s="4">
+    <row r="1" s="12" customFormat="true">
+      <c r="A1" t="s" s="12">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="4">
+      <c r="B1" t="s" s="12">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="4">
+      <c r="C1" t="s" s="12">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="4">
+      <c r="D1" t="s" s="12">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="4">
+      <c r="E1" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" t="s" s="12">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" t="s" s="12">
         <v>7</v>
       </c>
     </row>
@@ -218,28 +266,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="4">
+      <c r="A3" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="4">
+      <c r="B3" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="4">
+      <c r="C3" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="4">
+      <c r="E3" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="4">
+      <c r="F3" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="4">
+      <c r="G3" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="4">
+      <c r="H3" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -264,28 +312,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="4">
+      <c r="B5" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="4">
+      <c r="C5" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="4">
+      <c r="D5" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="4">
+      <c r="E5" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="4">
+      <c r="F5" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="4">
+      <c r="G5" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="4">
+      <c r="H5" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="4">
+      <c r="I5" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -402,10 +450,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="4" t="s">
+      <c r="J9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -449,28 +497,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="4">
+      <c r="A11" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="4">
+      <c r="B11" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="4">
+      <c r="C11" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="4">
+      <c r="E11" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="4">
+      <c r="F11" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="4">
+      <c r="G11" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="4">
+      <c r="H11" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -495,28 +543,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="4">
+      <c r="B13" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="4">
+      <c r="C13" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="4">
+      <c r="D13" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="4">
+      <c r="E13" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="4">
+      <c r="F13" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="4">
+      <c r="G13" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="4">
+      <c r="H13" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="4">
+      <c r="I13" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -604,10 +652,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="4" t="s">
+      <c r="J16" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -651,28 +699,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="4">
+      <c r="A18" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="4">
+      <c r="B18" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="4">
+      <c r="C18" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="4">
+      <c r="E18" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="4">
+      <c r="F18" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="4">
+      <c r="G18" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="4">
+      <c r="H18" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -697,28 +745,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="4">
+      <c r="B20" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="4">
+      <c r="C20" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="4">
+      <c r="D20" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="4">
+      <c r="E20" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="4">
+      <c r="F20" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="4">
+      <c r="G20" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="4">
+      <c r="H20" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="4">
+      <c r="I20" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -806,10 +854,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="J23" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -853,28 +901,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="4">
+      <c r="A25" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="4">
+      <c r="B25" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="4">
+      <c r="C25" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="4">
+      <c r="E25" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="4">
+      <c r="F25" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="4">
+      <c r="G25" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="4">
+      <c r="H25" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -899,28 +947,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="4">
+      <c r="B27" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="4">
+      <c r="C27" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="4">
+      <c r="D27" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="4">
+      <c r="E27" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="4">
+      <c r="F27" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="4">
+      <c r="G27" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="4">
+      <c r="H27" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="4">
+      <c r="I27" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1008,10 +1056,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="4" t="s">
+      <c r="J30" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1055,28 +1103,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="4">
+      <c r="A32" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="4">
+      <c r="B32" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="4">
+      <c r="C32" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="4">
+      <c r="E32" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="4">
+      <c r="F32" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="4">
+      <c r="G32" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="4">
+      <c r="H32" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1101,28 +1149,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="4">
+      <c r="B34" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="4">
+      <c r="C34" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="4">
+      <c r="D34" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="4">
+      <c r="E34" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="4">
+      <c r="F34" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="4">
+      <c r="G34" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="4">
+      <c r="H34" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="4">
+      <c r="I34" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1181,10 +1229,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="4" t="s">
+      <c r="J36" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1228,28 +1276,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="4">
+      <c r="A38" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="4">
+      <c r="B38" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="4">
+      <c r="C38" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="4">
+      <c r="E38" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="4">
+      <c r="F38" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="4">
+      <c r="G38" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="4">
+      <c r="H38" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1274,28 +1322,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="4">
+      <c r="B40" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="4">
+      <c r="C40" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="4">
+      <c r="D40" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="4">
+      <c r="E40" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="4">
+      <c r="F40" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="4">
+      <c r="G40" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="4">
+      <c r="H40" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="4">
+      <c r="I40" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1383,10 +1431,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="4" t="s">
+      <c r="J43" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1430,28 +1478,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="4">
+      <c r="A45" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="4">
+      <c r="B45" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="4">
+      <c r="C45" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="4">
+      <c r="E45" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="4">
+      <c r="F45" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="4">
+      <c r="G45" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="4">
+      <c r="H45" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1476,28 +1524,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="4">
+      <c r="B47" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="4">
+      <c r="C47" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="4">
+      <c r="D47" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="4">
+      <c r="E47" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="4">
+      <c r="F47" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="4">
+      <c r="G47" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="4">
+      <c r="H47" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="4">
+      <c r="I47" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1585,10 +1633,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="4" t="s">
+      <c r="J50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1632,28 +1680,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="4">
+      <c r="A52" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="4">
+      <c r="B52" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="4">
+      <c r="C52" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="4">
+      <c r="E52" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="4">
+      <c r="F52" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="4">
+      <c r="G52" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="4">
+      <c r="H52" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1678,28 +1726,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="4">
+      <c r="B54" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="4">
+      <c r="C54" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="4">
+      <c r="D54" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="4">
+      <c r="E54" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="4">
+      <c r="F54" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="4">
+      <c r="G54" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="4">
+      <c r="H54" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="4">
+      <c r="I54" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1787,10 +1835,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="4" t="s">
+      <c r="J57" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1834,28 +1882,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="4">
+      <c r="A59" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="4">
+      <c r="B59" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="4">
+      <c r="C59" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="4">
+      <c r="E59" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="4">
+      <c r="F59" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="4">
+      <c r="G59" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="4">
+      <c r="H59" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -1880,28 +1928,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="4">
+      <c r="B61" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="4">
+      <c r="C61" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="4">
+      <c r="D61" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="4">
+      <c r="E61" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="4">
+      <c r="F61" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="4">
+      <c r="G61" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="4">
+      <c r="H61" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="4">
+      <c r="I61" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -1989,10 +2037,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="4" t="s">
+      <c r="J64" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2036,28 +2084,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="4">
+      <c r="A66" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="4">
+      <c r="B66" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="4">
+      <c r="C66" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="4">
+      <c r="E66" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="4">
+      <c r="F66" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="4">
+      <c r="G66" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="4">
+      <c r="H66" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2082,28 +2130,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="4">
+      <c r="B68" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="4">
+      <c r="C68" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="4">
+      <c r="D68" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="4">
+      <c r="E68" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="4">
+      <c r="F68" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="4">
+      <c r="G68" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="4">
+      <c r="H68" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="4">
+      <c r="I68" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2191,10 +2239,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="4" t="s">
+      <c r="J71" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2238,28 +2286,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="4">
+      <c r="A73" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="4">
+      <c r="B73" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="4">
+      <c r="C73" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="4">
+      <c r="E73" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="4">
+      <c r="F73" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="4">
+      <c r="G73" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="4">
+      <c r="H73" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2284,28 +2332,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="4">
+      <c r="B75" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="4">
+      <c r="C75" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="4">
+      <c r="D75" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="4">
+      <c r="E75" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="4">
+      <c r="F75" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="4">
+      <c r="G75" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="4">
+      <c r="H75" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="4">
+      <c r="I75" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2422,10 +2470,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="4" t="s">
+      <c r="J79" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2469,28 +2517,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="4">
+      <c r="A81" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="4">
+      <c r="B81" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="4">
+      <c r="C81" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="4">
+      <c r="E81" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="4">
+      <c r="F81" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="4">
+      <c r="G81" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="4">
+      <c r="H81" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2515,28 +2563,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="4">
+      <c r="B83" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="4">
+      <c r="C83" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="4">
+      <c r="D83" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="4">
+      <c r="E83" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="4">
+      <c r="F83" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="4">
+      <c r="G83" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="4">
+      <c r="H83" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="4">
+      <c r="I83" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2653,10 +2701,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="4" t="s">
+      <c r="J87" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2700,28 +2748,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="4">
+      <c r="A89" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="4">
+      <c r="B89" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="4">
+      <c r="C89" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="4">
+      <c r="E89" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="4">
+      <c r="F89" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="4">
+      <c r="G89" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="4">
+      <c r="H89" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2746,28 +2794,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="4">
+      <c r="B91" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="4">
+      <c r="C91" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="4">
+      <c r="D91" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="4">
+      <c r="E91" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="4">
+      <c r="F91" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="4">
+      <c r="G91" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="4">
+      <c r="H91" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="4">
+      <c r="I91" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -2855,10 +2903,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="4" t="s">
+      <c r="J94" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2902,28 +2950,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="4">
+      <c r="A96" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="4">
+      <c r="B96" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="4">
+      <c r="C96" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="4">
+      <c r="E96" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="4">
+      <c r="F96" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="4">
+      <c r="G96" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="4">
+      <c r="H96" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -2948,28 +2996,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="4">
+      <c r="B98" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="4">
+      <c r="C98" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="4">
+      <c r="D98" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="4">
+      <c r="E98" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="4">
+      <c r="F98" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="4">
+      <c r="G98" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="4">
+      <c r="H98" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="4">
+      <c r="I98" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3086,10 +3134,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="4" t="s">
+      <c r="J102" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3133,28 +3181,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="4">
+      <c r="A104" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="4">
+      <c r="B104" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="4">
+      <c r="C104" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="4">
+      <c r="E104" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="4">
+      <c r="F104" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="4">
+      <c r="G104" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="4">
+      <c r="H104" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3179,28 +3227,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="4">
+      <c r="B106" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="4">
+      <c r="C106" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="4">
+      <c r="D106" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="4">
+      <c r="E106" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="4">
+      <c r="F106" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="4">
+      <c r="G106" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="4">
+      <c r="H106" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="4">
+      <c r="I106" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3317,10 +3365,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="4" t="s">
+      <c r="J110" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3364,28 +3412,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="4">
+      <c r="A112" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="4">
+      <c r="B112" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="4">
+      <c r="C112" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="4">
+      <c r="E112" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="4">
+      <c r="F112" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="4">
+      <c r="G112" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="4">
+      <c r="H112" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3410,28 +3458,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="4">
+      <c r="B114" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="4">
+      <c r="C114" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="4">
+      <c r="D114" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="4">
+      <c r="E114" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="4">
+      <c r="F114" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="4">
+      <c r="G114" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="4">
+      <c r="H114" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="4">
+      <c r="I114" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3519,10 +3567,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="4" t="s">
+      <c r="J117" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3566,28 +3614,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="4">
+      <c r="A119" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="4">
+      <c r="B119" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="4">
+      <c r="C119" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="4">
+      <c r="E119" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="4">
+      <c r="F119" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="4">
+      <c r="G119" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="4">
+      <c r="H119" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3612,28 +3660,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="4">
+      <c r="B121" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="4">
+      <c r="C121" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="4">
+      <c r="D121" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="4">
+      <c r="E121" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="4">
+      <c r="F121" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="4">
+      <c r="G121" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="4">
+      <c r="H121" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="4">
+      <c r="I121" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3721,10 +3769,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="4" t="s">
+      <c r="J124" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3768,28 +3816,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="4">
+      <c r="A126" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="4">
+      <c r="B126" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="4">
+      <c r="C126" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="4">
+      <c r="E126" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="4">
+      <c r="F126" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="4">
+      <c r="G126" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="4">
+      <c r="H126" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -3814,28 +3862,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="4">
+      <c r="B128" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="4">
+      <c r="C128" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="4">
+      <c r="D128" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="4">
+      <c r="E128" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="4">
+      <c r="F128" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="4">
+      <c r="G128" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="4">
+      <c r="H128" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="4">
+      <c r="I128" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -3923,10 +3971,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="4" t="s">
+      <c r="J131" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3970,28 +4018,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="4">
+      <c r="A133" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="4">
+      <c r="B133" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="4">
+      <c r="C133" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="4">
+      <c r="E133" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="4">
+      <c r="F133" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="4">
+      <c r="G133" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="4">
+      <c r="H133" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4016,28 +4064,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="4">
+      <c r="B135" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="4">
+      <c r="C135" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="4">
+      <c r="D135" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="4">
+      <c r="E135" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="4">
+      <c r="F135" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="4">
+      <c r="G135" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="4">
+      <c r="H135" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="4">
+      <c r="I135" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4096,10 +4144,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="4" t="s">
+      <c r="J137" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4143,28 +4191,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="4">
+      <c r="A139" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="4">
+      <c r="B139" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="4">
+      <c r="C139" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="4">
+      <c r="E139" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="4">
+      <c r="F139" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="4">
+      <c r="G139" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="4">
+      <c r="H139" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4189,28 +4237,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="4">
+      <c r="B141" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="4">
+      <c r="C141" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="4">
+      <c r="D141" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="4">
+      <c r="E141" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="4">
+      <c r="F141" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="4">
+      <c r="G141" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="4">
+      <c r="H141" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="4">
+      <c r="I141" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4298,10 +4346,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="4" t="s">
+      <c r="J144" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4345,28 +4393,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="4">
+      <c r="A146" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="4">
+      <c r="B146" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="4">
+      <c r="C146" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="4">
+      <c r="E146" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="4">
+      <c r="F146" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="4">
+      <c r="G146" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="4">
+      <c r="H146" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4391,28 +4439,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="4">
+      <c r="B148" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="4">
+      <c r="C148" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="4">
+      <c r="D148" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="4">
+      <c r="E148" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="4">
+      <c r="F148" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="4">
+      <c r="G148" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="4">
+      <c r="H148" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="4">
+      <c r="I148" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4500,10 +4548,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="4" t="s">
+      <c r="J151" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4547,28 +4595,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="4">
+      <c r="A153" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="4">
+      <c r="B153" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="4">
+      <c r="C153" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="4">
+      <c r="E153" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="4">
+      <c r="F153" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="4">
+      <c r="G153" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="4">
+      <c r="H153" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4593,28 +4641,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="4">
+      <c r="B155" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="4">
+      <c r="C155" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="4">
+      <c r="D155" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="4">
+      <c r="E155" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="4">
+      <c r="F155" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="4">
+      <c r="G155" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="4">
+      <c r="H155" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="4">
+      <c r="I155" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4702,10 +4750,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="4" t="s">
+      <c r="J158" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4749,28 +4797,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="4">
+      <c r="A160" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="4">
+      <c r="B160" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="4">
+      <c r="C160" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="4">
+      <c r="E160" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="4">
+      <c r="F160" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="4">
+      <c r="G160" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="4">
+      <c r="H160" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4795,28 +4843,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="4">
+      <c r="B162" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="4">
+      <c r="C162" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="4">
+      <c r="D162" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="4">
+      <c r="E162" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="4">
+      <c r="F162" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="4">
+      <c r="G162" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="4">
+      <c r="H162" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="4">
+      <c r="I162" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -4875,10 +4923,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="4" t="s">
+      <c r="J164" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4922,28 +4970,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="4">
+      <c r="A166" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="4">
+      <c r="B166" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="4">
+      <c r="C166" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="4">
+      <c r="E166" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="4">
+      <c r="F166" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="4">
+      <c r="G166" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="4">
+      <c r="H166" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -4968,28 +5016,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="4">
+      <c r="B168" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="4">
+      <c r="C168" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="4">
+      <c r="D168" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="4">
+      <c r="E168" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="4">
+      <c r="F168" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="4">
+      <c r="G168" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="4">
+      <c r="H168" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="4">
+      <c r="I168" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5048,10 +5096,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="4" t="s">
+      <c r="J170" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5095,28 +5143,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="4">
+      <c r="A172" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="4">
+      <c r="B172" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="4">
+      <c r="C172" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="4">
+      <c r="E172" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="4">
+      <c r="F172" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="4">
+      <c r="G172" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="4">
+      <c r="H172" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5141,28 +5189,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="4">
+      <c r="B174" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="4">
+      <c r="C174" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="4">
+      <c r="D174" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="4">
+      <c r="E174" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="4">
+      <c r="F174" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="4">
+      <c r="G174" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="4">
+      <c r="H174" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="4">
+      <c r="I174" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5221,10 +5269,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="4" t="s">
+      <c r="J176" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5268,28 +5316,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="4">
+      <c r="A178" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="4">
+      <c r="B178" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="4">
+      <c r="C178" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="4">
+      <c r="E178" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="4">
+      <c r="F178" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="4">
+      <c r="G178" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="4">
+      <c r="H178" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5314,28 +5362,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="4">
+      <c r="B180" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="4">
+      <c r="C180" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="4">
+      <c r="D180" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="4">
+      <c r="E180" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="4">
+      <c r="F180" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="4">
+      <c r="G180" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="4">
+      <c r="H180" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="4">
+      <c r="I180" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5394,10 +5442,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="4" t="s">
+      <c r="J182" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5441,28 +5489,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="4">
+      <c r="A184" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="4">
+      <c r="B184" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="4">
+      <c r="C184" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="4">
+      <c r="E184" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="4">
+      <c r="F184" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="4">
+      <c r="G184" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="4">
+      <c r="H184" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5487,28 +5535,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="4">
+      <c r="B186" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="4">
+      <c r="C186" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="4">
+      <c r="D186" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="4">
+      <c r="E186" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="4">
+      <c r="F186" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="4">
+      <c r="G186" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="4">
+      <c r="H186" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="4">
+      <c r="I186" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5567,10 +5615,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="4" t="s">
+      <c r="J188" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5614,28 +5662,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="4">
+      <c r="A190" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="4">
+      <c r="B190" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="4">
+      <c r="C190" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="4">
+      <c r="E190" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="4">
+      <c r="F190" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="4">
+      <c r="G190" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="4">
+      <c r="H190" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5660,28 +5708,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="4">
+      <c r="B192" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="4">
+      <c r="C192" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="4">
+      <c r="D192" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="4">
+      <c r="E192" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="4">
+      <c r="F192" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="4">
+      <c r="G192" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="4">
+      <c r="H192" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="4">
+      <c r="I192" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -5769,10 +5817,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="4" t="s">
+      <c r="J195" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5816,28 +5864,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="4">
+      <c r="A197" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="4">
+      <c r="B197" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="4">
+      <c r="C197" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="4">
+      <c r="E197" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="4">
+      <c r="F197" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="4">
+      <c r="G197" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="4">
+      <c r="H197" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -5862,28 +5910,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="4">
+      <c r="B199" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="4">
+      <c r="C199" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="4">
+      <c r="D199" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="4">
+      <c r="E199" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="4">
+      <c r="F199" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="4">
+      <c r="G199" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="4">
+      <c r="H199" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="4">
+      <c r="I199" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6000,10 +6048,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="4" t="s">
+      <c r="J203" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6047,28 +6095,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="4">
+      <c r="A205" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="4">
+      <c r="B205" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="4">
+      <c r="C205" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="4">
+      <c r="E205" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="4">
+      <c r="F205" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="4">
+      <c r="G205" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="4">
+      <c r="H205" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6093,28 +6141,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="4">
+      <c r="B207" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="4">
+      <c r="C207" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="4">
+      <c r="D207" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="4">
+      <c r="E207" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="4">
+      <c r="F207" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="4">
+      <c r="G207" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="4">
+      <c r="H207" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="4">
+      <c r="I207" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6202,10 +6250,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="4" t="s">
+      <c r="J210" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6249,28 +6297,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="4">
+      <c r="A212" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="4">
+      <c r="B212" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="4">
+      <c r="C212" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="4">
+      <c r="E212" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="4">
+      <c r="F212" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="4">
+      <c r="G212" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="4">
+      <c r="H212" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6295,28 +6343,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="4">
+      <c r="B214" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="4">
+      <c r="C214" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="4">
+      <c r="D214" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="4">
+      <c r="E214" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="4">
+      <c r="F214" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="4">
+      <c r="G214" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="4">
+      <c r="H214" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="4">
+      <c r="I214" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6404,10 +6452,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="4" t="s">
+      <c r="J217" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6451,28 +6499,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="4">
+      <c r="A219" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="4">
+      <c r="B219" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="4">
+      <c r="C219" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="4">
+      <c r="E219" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="4">
+      <c r="F219" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="4">
+      <c r="G219" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="4">
+      <c r="H219" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6497,28 +6545,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="4">
+      <c r="B221" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="4">
+      <c r="C221" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="4">
+      <c r="D221" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="4">
+      <c r="E221" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="4">
+      <c r="F221" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="4">
+      <c r="G221" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="4">
+      <c r="H221" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="4">
+      <c r="I221" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6606,10 +6654,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="4" t="s">
+      <c r="J224" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6653,28 +6701,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="4">
+      <c r="A226" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="4">
+      <c r="B226" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="4">
+      <c r="C226" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="4">
+      <c r="E226" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="4">
+      <c r="F226" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="4">
+      <c r="G226" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="4">
+      <c r="H226" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6699,28 +6747,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="4">
+      <c r="B228" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="4">
+      <c r="C228" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="4">
+      <c r="D228" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="4">
+      <c r="E228" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="4">
+      <c r="F228" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="4">
+      <c r="G228" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="4">
+      <c r="H228" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="4">
+      <c r="I228" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -6808,10 +6856,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="4" t="s">
+      <c r="J231" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6855,28 +6903,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="4">
+      <c r="A233" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="4">
+      <c r="B233" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="4">
+      <c r="C233" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="4">
+      <c r="E233" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="4">
+      <c r="F233" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="4">
+      <c r="G233" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="4">
+      <c r="H233" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -6901,28 +6949,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="4">
+      <c r="B235" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="4">
+      <c r="C235" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="4">
+      <c r="D235" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="4">
+      <c r="E235" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="4">
+      <c r="F235" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="4">
+      <c r="G235" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="4">
+      <c r="H235" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="4">
+      <c r="I235" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7068,10 +7116,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="4" t="s">
+      <c r="J240" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7115,28 +7163,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="4">
+      <c r="A242" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="4">
+      <c r="B242" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="4">
+      <c r="C242" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="4">
+      <c r="E242" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="4">
+      <c r="F242" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="4">
+      <c r="G242" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="4">
+      <c r="H242" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7161,28 +7209,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="4">
+      <c r="B244" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="4">
+      <c r="C244" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="4">
+      <c r="D244" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="4">
+      <c r="E244" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="4">
+      <c r="F244" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="4">
+      <c r="G244" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="4">
+      <c r="H244" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="4">
+      <c r="I244" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7299,10 +7347,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="4" t="s">
+      <c r="J248" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7346,28 +7394,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="4">
+      <c r="A250" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="4">
+      <c r="B250" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="4">
+      <c r="C250" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="4">
+      <c r="E250" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="4">
+      <c r="F250" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="4">
+      <c r="G250" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="4">
+      <c r="H250" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7392,28 +7440,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="4">
+      <c r="B252" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="4">
+      <c r="C252" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="4">
+      <c r="D252" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="4">
+      <c r="E252" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="4">
+      <c r="F252" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="4">
+      <c r="G252" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="4">
+      <c r="H252" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="4">
+      <c r="I252" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7501,10 +7549,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="4" t="s">
+      <c r="J255" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7548,28 +7596,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="4">
+      <c r="A257" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="4">
+      <c r="B257" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="4">
+      <c r="C257" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="4">
+      <c r="E257" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="4">
+      <c r="F257" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="4">
+      <c r="G257" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="4">
+      <c r="H257" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7594,28 +7642,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="4">
+      <c r="B259" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="4">
+      <c r="C259" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="4">
+      <c r="D259" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="4">
+      <c r="E259" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="4">
+      <c r="F259" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="4">
+      <c r="G259" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="4">
+      <c r="H259" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="4">
+      <c r="I259" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7674,10 +7722,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="4" t="s">
+      <c r="J261" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7721,28 +7769,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="4">
+      <c r="A263" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="4">
+      <c r="B263" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="4">
+      <c r="C263" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="4">
+      <c r="E263" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="4">
+      <c r="F263" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="4">
+      <c r="G263" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="4">
+      <c r="H263" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -7767,28 +7815,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="4">
+      <c r="B265" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="4">
+      <c r="C265" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="4">
+      <c r="D265" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="4">
+      <c r="E265" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="4">
+      <c r="F265" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="4">
+      <c r="G265" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="4">
+      <c r="H265" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="4">
+      <c r="I265" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -7992,10 +8040,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="4" t="s">
+      <c r="J272" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8039,28 +8087,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="4">
+      <c r="A274" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="4">
+      <c r="B274" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="4">
+      <c r="C274" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="4">
+      <c r="E274" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="4">
+      <c r="F274" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="4">
+      <c r="G274" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="4">
+      <c r="H274" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8085,28 +8133,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="4">
+      <c r="B276" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="4">
+      <c r="C276" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="4">
+      <c r="D276" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="4">
+      <c r="E276" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="4">
+      <c r="F276" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="4">
+      <c r="G276" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="4">
+      <c r="H276" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="4">
+      <c r="I276" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8223,10 +8271,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="4" t="s">
+      <c r="J280" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8270,28 +8318,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="4">
+      <c r="A282" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="4">
+      <c r="B282" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="4">
+      <c r="C282" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="4">
+      <c r="E282" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="4">
+      <c r="F282" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="4">
+      <c r="G282" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="4">
+      <c r="H282" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8316,28 +8364,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="4">
+      <c r="B284" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="4">
+      <c r="C284" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="4">
+      <c r="D284" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="4">
+      <c r="E284" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="4">
+      <c r="F284" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="4">
+      <c r="G284" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="4">
+      <c r="H284" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="4">
+      <c r="I284" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8396,10 +8444,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="4" t="s">
+      <c r="J286" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8443,28 +8491,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="4">
+      <c r="A288" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="4">
+      <c r="B288" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="4">
+      <c r="C288" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="4">
+      <c r="E288" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="4">
+      <c r="F288" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="4">
+      <c r="G288" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="4">
+      <c r="H288" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8489,28 +8537,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="4">
+      <c r="B290" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="4">
+      <c r="C290" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="4">
+      <c r="D290" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="4">
+      <c r="E290" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="4">
+      <c r="F290" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="4">
+      <c r="G290" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="4">
+      <c r="H290" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="4">
+      <c r="I290" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8569,10 +8617,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="4" t="s">
+      <c r="J292" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8616,28 +8664,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="4">
+      <c r="A294" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="4">
+      <c r="B294" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="4">
+      <c r="C294" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="4">
+      <c r="E294" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="4">
+      <c r="F294" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="4">
+      <c r="G294" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="4">
+      <c r="H294" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8662,28 +8710,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="4">
+      <c r="B296" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="4">
+      <c r="C296" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="4">
+      <c r="D296" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="4">
+      <c r="E296" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="4">
+      <c r="F296" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="4">
+      <c r="G296" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="4">
+      <c r="H296" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="4">
+      <c r="I296" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8742,10 +8790,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="4" t="s">
+      <c r="J298" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8789,28 +8837,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="4">
+      <c r="A300" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="4">
+      <c r="B300" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="4">
+      <c r="C300" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="4">
+      <c r="E300" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="4">
+      <c r="F300" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="4">
+      <c r="G300" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="4">
+      <c r="H300" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -8835,28 +8883,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="4">
+      <c r="B302" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="4">
+      <c r="C302" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="4">
+      <c r="D302" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="4">
+      <c r="E302" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="4">
+      <c r="F302" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="4">
+      <c r="G302" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="4">
+      <c r="H302" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="4">
+      <c r="I302" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -8915,10 +8963,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="4" t="s">
+      <c r="J304" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8962,28 +9010,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="4">
+      <c r="A306" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="4">
+      <c r="B306" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="4">
+      <c r="C306" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="4">
+      <c r="E306" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="4">
+      <c r="F306" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="4">
+      <c r="G306" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="4">
+      <c r="H306" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9008,28 +9056,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="4">
+      <c r="B308" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="4">
+      <c r="C308" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="4">
+      <c r="D308" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="4">
+      <c r="E308" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="4">
+      <c r="F308" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="4">
+      <c r="G308" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="4">
+      <c r="H308" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="4">
+      <c r="I308" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9117,10 +9165,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="4" t="s">
+      <c r="J311" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9164,28 +9212,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="4">
+      <c r="A313" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="4">
+      <c r="B313" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="4">
+      <c r="C313" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="4">
+      <c r="E313" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="4">
+      <c r="F313" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="4">
+      <c r="G313" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="4">
+      <c r="H313" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9210,28 +9258,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="4">
+      <c r="B315" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="4">
+      <c r="C315" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="4">
+      <c r="D315" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="4">
+      <c r="E315" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="4">
+      <c r="F315" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="4">
+      <c r="G315" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="4">
+      <c r="H315" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="4">
+      <c r="I315" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9290,10 +9338,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="4" t="s">
+      <c r="J317" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9337,28 +9385,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="4">
+      <c r="A319" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="4">
+      <c r="B319" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="4">
+      <c r="C319" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="4">
+      <c r="E319" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="4">
+      <c r="F319" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="4">
+      <c r="G319" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="4">
+      <c r="H319" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9383,28 +9431,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="4">
+      <c r="B321" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="4">
+      <c r="C321" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="4">
+      <c r="D321" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="4">
+      <c r="E321" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="4">
+      <c r="F321" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="4">
+      <c r="G321" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="4">
+      <c r="H321" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="4">
+      <c r="I321" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9463,10 +9511,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="4" t="s">
+      <c r="J323" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9510,28 +9558,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="4">
+      <c r="A325" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="4">
+      <c r="B325" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="4">
+      <c r="C325" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="4">
+      <c r="E325" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="4">
+      <c r="F325" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="4">
+      <c r="G325" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="4">
+      <c r="H325" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9556,28 +9604,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="4">
+      <c r="B327" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="4">
+      <c r="C327" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="4">
+      <c r="D327" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="4">
+      <c r="E327" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="4">
+      <c r="F327" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="4">
+      <c r="G327" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="4">
+      <c r="H327" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="4">
+      <c r="I327" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9636,10 +9684,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="4" t="s">
+      <c r="J329" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9683,28 +9731,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="4">
+      <c r="A331" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="4">
+      <c r="B331" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="4">
+      <c r="C331" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="4">
+      <c r="E331" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="4">
+      <c r="F331" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="4">
+      <c r="G331" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="4">
+      <c r="H331" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9729,28 +9777,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="4">
+      <c r="B333" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="4">
+      <c r="C333" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="4">
+      <c r="D333" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="4">
+      <c r="E333" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="4">
+      <c r="F333" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="4">
+      <c r="G333" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="4">
+      <c r="H333" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="4">
+      <c r="I333" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9809,10 +9857,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="4" t="s">
+      <c r="J335" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9856,28 +9904,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="4">
+      <c r="A337" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="4">
+      <c r="B337" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="4">
+      <c r="C337" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="4">
+      <c r="E337" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="4">
+      <c r="F337" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="4">
+      <c r="G337" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="4">
+      <c r="H337" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -9902,28 +9950,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="4">
+      <c r="B339" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="4">
+      <c r="C339" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="4">
+      <c r="D339" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="4">
+      <c r="E339" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="4">
+      <c r="F339" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="4">
+      <c r="G339" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="4">
+      <c r="H339" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="4">
+      <c r="I339" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -9982,10 +10030,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="4" t="s">
+      <c r="J341" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10029,28 +10077,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="4">
+      <c r="A343" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="4">
+      <c r="B343" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="4">
+      <c r="C343" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="4">
+      <c r="E343" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="4">
+      <c r="F343" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="4">
+      <c r="G343" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="4">
+      <c r="H343" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10075,28 +10123,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="4">
+      <c r="B345" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="4">
+      <c r="C345" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="4">
+      <c r="D345" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="4">
+      <c r="E345" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="4">
+      <c r="F345" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="4">
+      <c r="G345" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="4">
+      <c r="H345" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="4">
+      <c r="I345" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10155,10 +10203,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="4" t="s">
+      <c r="J347" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10202,28 +10250,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="4">
+      <c r="A349" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="4">
+      <c r="B349" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="4">
+      <c r="C349" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="4">
+      <c r="E349" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="4">
+      <c r="F349" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="4">
+      <c r="G349" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="4">
+      <c r="H349" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10248,28 +10296,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="4">
+      <c r="B351" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="4">
+      <c r="C351" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="4">
+      <c r="D351" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="4">
+      <c r="E351" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="4">
+      <c r="F351" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="4">
+      <c r="G351" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="4">
+      <c r="H351" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="4">
+      <c r="I351" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10328,10 +10376,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="4" t="s">
+      <c r="J353" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10375,28 +10423,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="4">
+      <c r="A355" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="4">
+      <c r="B355" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="4">
+      <c r="C355" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="4">
+      <c r="E355" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="4">
+      <c r="F355" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="4">
+      <c r="G355" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="4">
+      <c r="H355" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10421,28 +10469,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="4">
+      <c r="B357" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="4">
+      <c r="C357" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="4">
+      <c r="D357" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="4">
+      <c r="E357" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="4">
+      <c r="F357" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="4">
+      <c r="G357" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="4">
+      <c r="H357" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="4">
+      <c r="I357" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10530,10 +10578,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="4" t="s">
+      <c r="J360" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10577,28 +10625,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="4">
+      <c r="A362" t="s" s="12">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="4">
+      <c r="B362" t="s" s="12">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="4">
+      <c r="C362" t="s" s="12">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="12">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="4">
+      <c r="E362" t="s" s="12">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="4">
+      <c r="F362" t="s" s="12">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="4">
+      <c r="G362" t="s" s="12">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="4">
+      <c r="H362" t="s" s="12">
         <v>16</v>
       </c>
     </row>
@@ -10623,28 +10671,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="4">
+      <c r="B364" t="s" s="12">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="4">
+      <c r="C364" t="s" s="12">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="4">
+      <c r="D364" t="s" s="12">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="4">
+      <c r="E364" t="s" s="12">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="4">
+      <c r="F364" t="s" s="12">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="4">
+      <c r="G364" t="s" s="12">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="4">
+      <c r="H364" t="s" s="12">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="4">
+      <c r="I364" t="s" s="12">
         <v>11</v>
       </c>
     </row>
@@ -10703,10 +10751,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="4" t="s">
+      <c r="J366" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="12" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">

--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c103_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11640" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14550" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -183,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -197,6 +212,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -219,26 +237,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="true">
-      <c r="A1" t="s" s="12">
+    <row r="1" s="15" customFormat="true">
+      <c r="A1" t="s" s="15">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="12">
+      <c r="B1" t="s" s="15">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="12">
+      <c r="C1" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="12">
+      <c r="D1" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="12">
+      <c r="E1" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="12">
+      <c r="F1" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="12">
+      <c r="G1" t="s" s="15">
         <v>7</v>
       </c>
     </row>
@@ -266,28 +284,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="12">
+      <c r="A3" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="12">
+      <c r="B3" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="12">
+      <c r="C3" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="12">
+      <c r="F3" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="12">
+      <c r="G3" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="12">
+      <c r="H3" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -312,28 +330,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="12">
+      <c r="B5" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F5" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G5" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="12">
+      <c r="H5" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -450,10 +468,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -497,28 +515,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="12">
+      <c r="A11" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="12">
+      <c r="B11" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="12">
+      <c r="C11" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="12">
+      <c r="F11" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="12">
+      <c r="G11" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="12">
+      <c r="H11" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -543,28 +561,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="12">
+      <c r="B13" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="12">
+      <c r="C13" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="12">
+      <c r="F13" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="12">
+      <c r="G13" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="12">
+      <c r="H13" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="12">
+      <c r="I13" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -652,10 +670,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="12" t="s">
+      <c r="J16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -699,28 +717,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="12">
+      <c r="A18" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="12">
+      <c r="B18" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="12">
+      <c r="C18" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="12">
+      <c r="F18" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="12">
+      <c r="G18" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="12">
+      <c r="H18" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -745,28 +763,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="12">
+      <c r="B20" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="12">
+      <c r="C20" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="12">
+      <c r="F20" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="12">
+      <c r="G20" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="12">
+      <c r="H20" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="12">
+      <c r="I20" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -854,10 +872,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -901,28 +919,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="12">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="12">
+      <c r="B25" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="12">
+      <c r="C25" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="12">
+      <c r="F25" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="12">
+      <c r="G25" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="12">
+      <c r="H25" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -947,28 +965,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="12">
+      <c r="B27" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="12">
+      <c r="C27" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="12">
+      <c r="F27" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="12">
+      <c r="G27" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="12">
+      <c r="H27" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="12">
+      <c r="I27" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1056,10 +1074,10 @@
       <c r="I30">
         <f>((C30-C29)^2+(D30- D29)^2)^.5</f>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K30" s="12" t="s">
+      <c r="J30" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L30" t="n">
@@ -1103,28 +1121,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s" s="12">
+      <c r="A32" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B32" t="s" s="12">
+      <c r="B32" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D32" t="s" s="12">
+      <c r="C32" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D32" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F32" t="s" s="12">
+      <c r="F32" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G32" t="s" s="12">
+      <c r="G32" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H32" t="s" s="12">
+      <c r="H32" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1149,28 +1167,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="B34" t="s" s="12">
+      <c r="B34" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C34" t="s" s="12">
+      <c r="C34" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F34" t="s" s="12">
+      <c r="F34" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G34" t="s" s="12">
+      <c r="G34" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H34" t="s" s="12">
+      <c r="H34" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I34" t="s" s="12">
+      <c r="I34" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1229,10 +1247,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="12" t="s">
+      <c r="J36" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1276,28 +1294,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="12">
+      <c r="A38" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="12">
+      <c r="B38" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="12">
+      <c r="C38" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="12">
+      <c r="F38" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="12">
+      <c r="G38" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="12">
+      <c r="H38" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1322,28 +1340,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="12">
+      <c r="B40" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="12">
+      <c r="C40" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="12">
+      <c r="F40" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="12">
+      <c r="G40" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="12">
+      <c r="H40" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="12">
+      <c r="I40" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1431,10 +1449,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="12" t="s">
+      <c r="J43" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1478,28 +1496,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="12">
+      <c r="A45" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="12">
+      <c r="B45" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="12">
+      <c r="C45" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="12">
+      <c r="E45" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="12">
+      <c r="F45" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="12">
+      <c r="G45" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="12">
+      <c r="H45" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1524,28 +1542,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="12">
+      <c r="B47" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="12">
+      <c r="C47" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="12">
+      <c r="D47" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="12">
+      <c r="E47" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="12">
+      <c r="F47" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="12">
+      <c r="G47" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="12">
+      <c r="H47" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="12">
+      <c r="I47" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1633,10 +1651,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="12" t="s">
+      <c r="J50" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1680,28 +1698,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="12">
+      <c r="A52" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="12">
+      <c r="B52" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="12">
+      <c r="C52" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="12">
+      <c r="E52" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="12">
+      <c r="F52" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="12">
+      <c r="G52" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="12">
+      <c r="H52" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1726,28 +1744,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="12">
+      <c r="B54" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="12">
+      <c r="C54" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="12">
+      <c r="D54" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="12">
+      <c r="E54" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="12">
+      <c r="F54" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="12">
+      <c r="G54" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="12">
+      <c r="H54" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="12">
+      <c r="I54" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -1835,10 +1853,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="12" t="s">
+      <c r="J57" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1882,28 +1900,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="12">
+      <c r="A59" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="12">
+      <c r="B59" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="12">
+      <c r="C59" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="12">
+      <c r="E59" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="12">
+      <c r="F59" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="12">
+      <c r="G59" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="12">
+      <c r="H59" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -1928,28 +1946,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="12">
+      <c r="B61" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="12">
+      <c r="C61" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="12">
+      <c r="D61" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="12">
+      <c r="E61" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="12">
+      <c r="F61" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="12">
+      <c r="G61" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="12">
+      <c r="H61" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="12">
+      <c r="I61" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2037,10 +2055,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="12" t="s">
+      <c r="J64" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2084,28 +2102,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="12">
+      <c r="A66" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="12">
+      <c r="B66" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="12">
+      <c r="C66" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="12">
+      <c r="E66" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="12">
+      <c r="F66" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="12">
+      <c r="G66" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="12">
+      <c r="H66" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2130,28 +2148,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="12">
+      <c r="B68" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="12">
+      <c r="C68" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="12">
+      <c r="D68" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="12">
+      <c r="E68" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="12">
+      <c r="F68" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G68" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="12">
+      <c r="H68" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="12">
+      <c r="I68" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2239,10 +2257,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="12" t="s">
+      <c r="J71" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2286,28 +2304,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="12">
+      <c r="A73" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="12">
+      <c r="B73" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="12">
+      <c r="C73" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="12">
+      <c r="E73" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="12">
+      <c r="F73" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="12">
+      <c r="G73" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="12">
+      <c r="H73" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2332,28 +2350,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="12">
+      <c r="B75" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="12">
+      <c r="C75" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="12">
+      <c r="D75" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="12">
+      <c r="E75" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="12">
+      <c r="F75" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="12">
+      <c r="G75" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="12">
+      <c r="H75" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="12">
+      <c r="I75" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2470,10 +2488,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="12" t="s">
+      <c r="J79" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2517,28 +2535,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="12">
+      <c r="A81" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="12">
+      <c r="B81" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="12">
+      <c r="C81" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="12">
+      <c r="E81" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="12">
+      <c r="F81" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="12">
+      <c r="G81" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="12">
+      <c r="H81" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2563,28 +2581,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="12">
+      <c r="B83" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="12">
+      <c r="C83" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="12">
+      <c r="D83" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="12">
+      <c r="E83" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="12">
+      <c r="F83" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="12">
+      <c r="G83" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="12">
+      <c r="H83" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="12">
+      <c r="I83" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2701,10 +2719,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="12" t="s">
+      <c r="J87" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2748,28 +2766,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="12">
+      <c r="A89" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="12">
+      <c r="B89" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="12">
+      <c r="C89" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="12">
+      <c r="E89" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="12">
+      <c r="F89" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="12">
+      <c r="G89" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="12">
+      <c r="H89" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2794,28 +2812,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="12">
+      <c r="B91" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="12">
+      <c r="C91" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="12">
+      <c r="D91" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="12">
+      <c r="E91" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="12">
+      <c r="F91" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="12">
+      <c r="G91" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="12">
+      <c r="H91" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="12">
+      <c r="I91" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -2903,10 +2921,10 @@
       <c r="I94">
         <f>((C94-C93)^2+(D94- D93)^2)^.5</f>
       </c>
-      <c r="J94" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K94" s="12" t="s">
+      <c r="J94" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L94" t="n">
@@ -2950,28 +2968,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="s" s="12">
+      <c r="A96" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B96" t="s" s="12">
+      <c r="B96" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C96" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D96" t="s" s="12">
+      <c r="C96" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D96" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E96" t="s" s="12">
+      <c r="E96" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F96" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G96" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H96" t="s" s="12">
+      <c r="H96" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -2996,28 +3014,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="B98" t="s" s="12">
+      <c r="B98" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C98" t="s" s="12">
+      <c r="C98" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D98" t="s" s="12">
+      <c r="D98" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E98" t="s" s="12">
+      <c r="E98" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F98" t="s" s="12">
+      <c r="F98" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G98" t="s" s="12">
+      <c r="G98" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H98" t="s" s="12">
+      <c r="H98" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I98" t="s" s="12">
+      <c r="I98" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3134,10 +3152,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="12" t="s">
+      <c r="J102" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3181,28 +3199,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="12">
+      <c r="A104" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="12">
+      <c r="B104" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="12">
+      <c r="C104" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="12">
+      <c r="E104" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="12">
+      <c r="F104" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="12">
+      <c r="G104" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="12">
+      <c r="H104" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3227,28 +3245,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="12">
+      <c r="B106" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="12">
+      <c r="C106" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="12">
+      <c r="D106" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="12">
+      <c r="E106" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="12">
+      <c r="F106" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="12">
+      <c r="G106" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="12">
+      <c r="H106" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="12">
+      <c r="I106" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3383,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="12" t="s">
+      <c r="J110" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3412,28 +3430,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="12">
+      <c r="A112" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="12">
+      <c r="B112" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="12">
+      <c r="C112" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="12">
+      <c r="E112" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="12">
+      <c r="F112" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="12">
+      <c r="G112" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="12">
+      <c r="H112" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3476,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="12">
+      <c r="B114" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="12">
+      <c r="C114" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="12">
+      <c r="D114" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="12">
+      <c r="E114" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="12">
+      <c r="F114" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="12">
+      <c r="G114" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="12">
+      <c r="H114" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="12">
+      <c r="I114" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3567,10 +3585,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="12" t="s">
+      <c r="J117" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3614,28 +3632,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="12">
+      <c r="A119" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="12">
+      <c r="B119" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="12">
+      <c r="C119" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="12">
+      <c r="E119" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="12">
+      <c r="F119" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="12">
+      <c r="G119" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="12">
+      <c r="H119" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3660,28 +3678,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="12">
+      <c r="B121" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="12">
+      <c r="C121" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="12">
+      <c r="D121" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="12">
+      <c r="E121" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="12">
+      <c r="F121" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="12">
+      <c r="G121" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="12">
+      <c r="H121" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="12">
+      <c r="I121" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3769,10 +3787,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="12" t="s">
+      <c r="J124" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3816,28 +3834,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="12">
+      <c r="A126" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="12">
+      <c r="B126" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="12">
+      <c r="C126" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="12">
+      <c r="E126" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="12">
+      <c r="F126" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="12">
+      <c r="G126" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="12">
+      <c r="H126" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -3862,28 +3880,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="12">
+      <c r="B128" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="12">
+      <c r="C128" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="12">
+      <c r="D128" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="12">
+      <c r="E128" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="12">
+      <c r="F128" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="12">
+      <c r="G128" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="12">
+      <c r="H128" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="12">
+      <c r="I128" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -3971,10 +3989,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="12" t="s">
+      <c r="J131" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -4018,28 +4036,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="12">
+      <c r="A133" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="12">
+      <c r="B133" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="12">
+      <c r="C133" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="12">
+      <c r="E133" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="12">
+      <c r="F133" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="12">
+      <c r="G133" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="12">
+      <c r="H133" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4064,28 +4082,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="12">
+      <c r="B135" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="12">
+      <c r="C135" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="12">
+      <c r="D135" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="12">
+      <c r="E135" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="12">
+      <c r="F135" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="12">
+      <c r="G135" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="12">
+      <c r="H135" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="12">
+      <c r="I135" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4144,10 +4162,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="12" t="s">
+      <c r="J137" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4191,28 +4209,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="12">
+      <c r="A139" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="12">
+      <c r="B139" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="12">
+      <c r="C139" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="12">
+      <c r="E139" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="12">
+      <c r="F139" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="12">
+      <c r="G139" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="12">
+      <c r="H139" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4237,28 +4255,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="12">
+      <c r="B141" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="12">
+      <c r="C141" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="12">
+      <c r="D141" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="12">
+      <c r="E141" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="12">
+      <c r="F141" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="12">
+      <c r="G141" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="12">
+      <c r="H141" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="12">
+      <c r="I141" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4364,10 @@
       <c r="I144">
         <f>((C144-C143)^2+(D144- D143)^2)^.5</f>
       </c>
-      <c r="J144" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K144" s="12" t="s">
+      <c r="J144" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K144" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L144" t="n">
@@ -4393,28 +4411,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="s" s="12">
+      <c r="A146" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B146" t="s" s="12">
+      <c r="B146" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C146" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D146" t="s" s="12">
+      <c r="C146" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D146" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E146" t="s" s="12">
+      <c r="E146" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F146" t="s" s="12">
+      <c r="F146" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G146" t="s" s="12">
+      <c r="G146" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H146" t="s" s="12">
+      <c r="H146" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4457,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="B148" t="s" s="12">
+      <c r="B148" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C148" t="s" s="12">
+      <c r="C148" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D148" t="s" s="12">
+      <c r="D148" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E148" t="s" s="12">
+      <c r="E148" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F148" t="s" s="12">
+      <c r="F148" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G148" t="s" s="12">
+      <c r="G148" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H148" t="s" s="12">
+      <c r="H148" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I148" t="s" s="12">
+      <c r="I148" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4548,10 +4566,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="12" t="s">
+      <c r="J151" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4595,28 +4613,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="12">
+      <c r="A153" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="12">
+      <c r="B153" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="12">
+      <c r="C153" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="12">
+      <c r="E153" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="12">
+      <c r="F153" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="12">
+      <c r="G153" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="12">
+      <c r="H153" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4641,28 +4659,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="12">
+      <c r="B155" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="12">
+      <c r="C155" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="12">
+      <c r="D155" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="12">
+      <c r="E155" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="12">
+      <c r="F155" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="12">
+      <c r="G155" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="12">
+      <c r="H155" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="12">
+      <c r="I155" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4750,10 +4768,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="12" t="s">
+      <c r="J158" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4797,28 +4815,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="12">
+      <c r="A160" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="12">
+      <c r="B160" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="12">
+      <c r="C160" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="12">
+      <c r="E160" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="12">
+      <c r="F160" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="12">
+      <c r="G160" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="12">
+      <c r="H160" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -4843,28 +4861,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="12">
+      <c r="B162" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="12">
+      <c r="C162" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="12">
+      <c r="D162" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="12">
+      <c r="E162" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="12">
+      <c r="F162" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="12">
+      <c r="G162" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="12">
+      <c r="H162" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="12">
+      <c r="I162" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -4923,10 +4941,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K164" s="12" t="s">
+      <c r="J164" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K164" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4970,28 +4988,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="12">
+      <c r="A166" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="12">
+      <c r="B166" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D166" t="s" s="12">
+      <c r="C166" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D166" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="12">
+      <c r="E166" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="12">
+      <c r="F166" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="12">
+      <c r="G166" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="12">
+      <c r="H166" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5016,28 +5034,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="12">
+      <c r="B168" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="12">
+      <c r="C168" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="12">
+      <c r="D168" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="12">
+      <c r="E168" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="12">
+      <c r="F168" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="12">
+      <c r="G168" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="12">
+      <c r="H168" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="12">
+      <c r="I168" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5096,10 +5114,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="12" t="s">
+      <c r="J170" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5143,28 +5161,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="12">
+      <c r="A172" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="12">
+      <c r="B172" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="12">
+      <c r="C172" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="12">
+      <c r="E172" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="12">
+      <c r="F172" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="12">
+      <c r="G172" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="12">
+      <c r="H172" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5189,28 +5207,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="12">
+      <c r="B174" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="12">
+      <c r="C174" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="12">
+      <c r="D174" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="12">
+      <c r="E174" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="12">
+      <c r="F174" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="12">
+      <c r="G174" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="12">
+      <c r="H174" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="12">
+      <c r="I174" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5269,10 +5287,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="12" t="s">
+      <c r="J176" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5316,28 +5334,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="12">
+      <c r="A178" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="12">
+      <c r="B178" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="12">
+      <c r="C178" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="12">
+      <c r="E178" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="12">
+      <c r="F178" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="12">
+      <c r="G178" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="12">
+      <c r="H178" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5362,28 +5380,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="12">
+      <c r="B180" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="12">
+      <c r="C180" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="12">
+      <c r="D180" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="12">
+      <c r="E180" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="12">
+      <c r="F180" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="12">
+      <c r="G180" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="12">
+      <c r="H180" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="12">
+      <c r="I180" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5442,10 +5460,10 @@
       <c r="I182">
         <f>((C182-C181)^2+(D182- D181)^2)^.5</f>
       </c>
-      <c r="J182" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K182" s="12" t="s">
+      <c r="J182" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K182" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L182" t="n">
@@ -5489,28 +5507,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="s" s="12">
+      <c r="A184" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B184" t="s" s="12">
+      <c r="B184" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C184" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D184" t="s" s="12">
+      <c r="C184" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D184" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E184" t="s" s="12">
+      <c r="E184" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F184" t="s" s="12">
+      <c r="F184" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G184" t="s" s="12">
+      <c r="G184" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H184" t="s" s="12">
+      <c r="H184" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5535,28 +5553,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="B186" t="s" s="12">
+      <c r="B186" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C186" t="s" s="12">
+      <c r="C186" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D186" t="s" s="12">
+      <c r="D186" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E186" t="s" s="12">
+      <c r="E186" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F186" t="s" s="12">
+      <c r="F186" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G186" t="s" s="12">
+      <c r="G186" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H186" t="s" s="12">
+      <c r="H186" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I186" t="s" s="12">
+      <c r="I186" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5615,10 +5633,10 @@
       <c r="I188">
         <f>((C188-C187)^2+(D188- D187)^2)^.5</f>
       </c>
-      <c r="J188" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K188" s="12" t="s">
+      <c r="J188" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K188" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L188" t="n">
@@ -5662,28 +5680,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="s" s="12">
+      <c r="A190" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B190" t="s" s="12">
+      <c r="B190" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C190" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D190" t="s" s="12">
+      <c r="C190" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D190" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E190" t="s" s="12">
+      <c r="E190" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F190" t="s" s="12">
+      <c r="F190" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G190" t="s" s="12">
+      <c r="G190" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H190" t="s" s="12">
+      <c r="H190" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5708,28 +5726,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="B192" t="s" s="12">
+      <c r="B192" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C192" t="s" s="12">
+      <c r="C192" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D192" t="s" s="12">
+      <c r="D192" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E192" t="s" s="12">
+      <c r="E192" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F192" t="s" s="12">
+      <c r="F192" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G192" t="s" s="12">
+      <c r="G192" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H192" t="s" s="12">
+      <c r="H192" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I192" t="s" s="12">
+      <c r="I192" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -5817,10 +5835,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="12" t="s">
+      <c r="J195" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5864,28 +5882,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="12">
+      <c r="A197" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="12">
+      <c r="B197" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="12">
+      <c r="C197" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="12">
+      <c r="E197" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="12">
+      <c r="F197" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="12">
+      <c r="G197" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="12">
+      <c r="H197" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -5910,28 +5928,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="12">
+      <c r="B199" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="12">
+      <c r="C199" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="12">
+      <c r="D199" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="12">
+      <c r="E199" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="12">
+      <c r="F199" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="12">
+      <c r="G199" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="12">
+      <c r="H199" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="12">
+      <c r="I199" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6048,10 +6066,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="12" t="s">
+      <c r="J203" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6095,28 +6113,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="12">
+      <c r="A205" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="12">
+      <c r="B205" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="12">
+      <c r="C205" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="12">
+      <c r="E205" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="12">
+      <c r="F205" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="12">
+      <c r="G205" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="12">
+      <c r="H205" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6141,28 +6159,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="12">
+      <c r="B207" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="12">
+      <c r="C207" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="12">
+      <c r="D207" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="12">
+      <c r="E207" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="12">
+      <c r="F207" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="12">
+      <c r="G207" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="12">
+      <c r="H207" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="12">
+      <c r="I207" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6250,10 +6268,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="12" t="s">
+      <c r="J210" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6297,28 +6315,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="12">
+      <c r="A212" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="12">
+      <c r="B212" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="12">
+      <c r="C212" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="12">
+      <c r="E212" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="12">
+      <c r="F212" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="12">
+      <c r="G212" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="12">
+      <c r="H212" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6343,28 +6361,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="12">
+      <c r="B214" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="12">
+      <c r="C214" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="12">
+      <c r="D214" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="12">
+      <c r="E214" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="12">
+      <c r="F214" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="12">
+      <c r="G214" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="12">
+      <c r="H214" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="12">
+      <c r="I214" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6452,10 +6470,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="12" t="s">
+      <c r="J217" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6499,28 +6517,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="12">
+      <c r="A219" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="12">
+      <c r="B219" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="12">
+      <c r="C219" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="12">
+      <c r="E219" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="12">
+      <c r="F219" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="12">
+      <c r="G219" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="12">
+      <c r="H219" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6545,28 +6563,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="12">
+      <c r="B221" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="12">
+      <c r="C221" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="12">
+      <c r="D221" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="12">
+      <c r="E221" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="12">
+      <c r="F221" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="12">
+      <c r="G221" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="12">
+      <c r="H221" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="12">
+      <c r="I221" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6654,10 +6672,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="12" t="s">
+      <c r="J224" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6701,28 +6719,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="12">
+      <c r="A226" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="12">
+      <c r="B226" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="12">
+      <c r="C226" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="12">
+      <c r="E226" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="12">
+      <c r="F226" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="12">
+      <c r="G226" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="12">
+      <c r="H226" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6747,28 +6765,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="12">
+      <c r="B228" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="12">
+      <c r="C228" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="12">
+      <c r="D228" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="12">
+      <c r="E228" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="12">
+      <c r="F228" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="12">
+      <c r="G228" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="12">
+      <c r="H228" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="12">
+      <c r="I228" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -6856,10 +6874,10 @@
       <c r="I231">
         <f>((C231-C230)^2+(D231- D230)^2)^.5</f>
       </c>
-      <c r="J231" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K231" s="12" t="s">
+      <c r="J231" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K231" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L231" t="n">
@@ -6903,28 +6921,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="s" s="12">
+      <c r="A233" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B233" t="s" s="12">
+      <c r="B233" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C233" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D233" t="s" s="12">
+      <c r="C233" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D233" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E233" t="s" s="12">
+      <c r="E233" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F233" t="s" s="12">
+      <c r="F233" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G233" t="s" s="12">
+      <c r="G233" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H233" t="s" s="12">
+      <c r="H233" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -6949,28 +6967,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="12">
+      <c r="B235" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C235" t="s" s="12">
+      <c r="C235" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D235" t="s" s="12">
+      <c r="D235" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E235" t="s" s="12">
+      <c r="E235" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F235" t="s" s="12">
+      <c r="F235" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G235" t="s" s="12">
+      <c r="G235" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H235" t="s" s="12">
+      <c r="H235" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I235" t="s" s="12">
+      <c r="I235" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7116,10 +7134,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="12" t="s">
+      <c r="J240" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7163,28 +7181,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="12">
+      <c r="A242" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="12">
+      <c r="B242" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="12">
+      <c r="C242" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="12">
+      <c r="E242" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="12">
+      <c r="F242" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="12">
+      <c r="G242" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="12">
+      <c r="H242" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7209,28 +7227,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="12">
+      <c r="B244" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="12">
+      <c r="C244" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="12">
+      <c r="D244" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="12">
+      <c r="E244" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="12">
+      <c r="F244" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="12">
+      <c r="G244" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="12">
+      <c r="H244" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="12">
+      <c r="I244" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7365,10 @@
       <c r="I248">
         <f>((C248-C247)^2+(D248- D247)^2)^.5</f>
       </c>
-      <c r="J248" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K248" s="12" t="s">
+      <c r="J248" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K248" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L248" t="n">
@@ -7394,28 +7412,28 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="s" s="12">
+      <c r="A250" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B250" t="s" s="12">
+      <c r="B250" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C250" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D250" t="s" s="12">
+      <c r="C250" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D250" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E250" t="s" s="12">
+      <c r="E250" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F250" t="s" s="12">
+      <c r="F250" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G250" t="s" s="12">
+      <c r="G250" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H250" t="s" s="12">
+      <c r="H250" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7458,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="B252" t="s" s="12">
+      <c r="B252" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C252" t="s" s="12">
+      <c r="C252" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D252" t="s" s="12">
+      <c r="D252" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E252" t="s" s="12">
+      <c r="E252" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F252" t="s" s="12">
+      <c r="F252" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G252" t="s" s="12">
+      <c r="G252" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H252" t="s" s="12">
+      <c r="H252" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I252" t="s" s="12">
+      <c r="I252" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7549,10 +7567,10 @@
       <c r="I255">
         <f>((C255-C254)^2+(D255- D254)^2)^.5</f>
       </c>
-      <c r="J255" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K255" s="12" t="s">
+      <c r="J255" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K255" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L255" t="n">
@@ -7596,28 +7614,28 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="s" s="12">
+      <c r="A257" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B257" t="s" s="12">
+      <c r="B257" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C257" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D257" t="s" s="12">
+      <c r="C257" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D257" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E257" t="s" s="12">
+      <c r="E257" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F257" t="s" s="12">
+      <c r="F257" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G257" t="s" s="12">
+      <c r="G257" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H257" t="s" s="12">
+      <c r="H257" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7642,28 +7660,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="B259" t="s" s="12">
+      <c r="B259" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C259" t="s" s="12">
+      <c r="C259" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D259" t="s" s="12">
+      <c r="D259" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E259" t="s" s="12">
+      <c r="E259" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F259" t="s" s="12">
+      <c r="F259" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G259" t="s" s="12">
+      <c r="G259" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H259" t="s" s="12">
+      <c r="H259" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I259" t="s" s="12">
+      <c r="I259" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -7722,10 +7740,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="12" t="s">
+      <c r="J261" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7769,28 +7787,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="12">
+      <c r="A263" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="12">
+      <c r="B263" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="12">
+      <c r="C263" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="12">
+      <c r="E263" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="12">
+      <c r="F263" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="12">
+      <c r="G263" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="12">
+      <c r="H263" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -7815,28 +7833,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="12">
+      <c r="B265" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="12">
+      <c r="C265" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="12">
+      <c r="D265" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="12">
+      <c r="E265" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="12">
+      <c r="F265" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="12">
+      <c r="G265" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="12">
+      <c r="H265" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="12">
+      <c r="I265" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8040,10 +8058,10 @@
       <c r="I272">
         <f>((C272-C271)^2+(D272- D271)^2)^.5</f>
       </c>
-      <c r="J272" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K272" s="12" t="s">
+      <c r="J272" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K272" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L272" t="n">
@@ -8087,28 +8105,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="s" s="12">
+      <c r="A274" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B274" t="s" s="12">
+      <c r="B274" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C274" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D274" t="s" s="12">
+      <c r="C274" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D274" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E274" t="s" s="12">
+      <c r="E274" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F274" t="s" s="12">
+      <c r="F274" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G274" t="s" s="12">
+      <c r="G274" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H274" t="s" s="12">
+      <c r="H274" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8133,28 +8151,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="B276" t="s" s="12">
+      <c r="B276" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C276" t="s" s="12">
+      <c r="C276" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D276" t="s" s="12">
+      <c r="D276" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E276" t="s" s="12">
+      <c r="E276" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F276" t="s" s="12">
+      <c r="F276" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G276" t="s" s="12">
+      <c r="G276" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H276" t="s" s="12">
+      <c r="H276" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I276" t="s" s="12">
+      <c r="I276" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8271,10 +8289,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="12" t="s">
+      <c r="J280" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8318,28 +8336,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="12">
+      <c r="A282" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="12">
+      <c r="B282" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="12">
+      <c r="C282" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="12">
+      <c r="E282" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="12">
+      <c r="F282" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="12">
+      <c r="G282" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="12">
+      <c r="H282" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8364,28 +8382,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="12">
+      <c r="B284" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="12">
+      <c r="C284" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="12">
+      <c r="D284" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="12">
+      <c r="E284" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="12">
+      <c r="F284" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="12">
+      <c r="G284" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="12">
+      <c r="H284" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="12">
+      <c r="I284" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8444,10 +8462,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="12" t="s">
+      <c r="J286" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8491,28 +8509,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="12">
+      <c r="A288" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="12">
+      <c r="B288" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="12">
+      <c r="C288" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="12">
+      <c r="E288" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="12">
+      <c r="F288" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="12">
+      <c r="G288" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="12">
+      <c r="H288" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8537,28 +8555,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="12">
+      <c r="B290" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="12">
+      <c r="C290" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="12">
+      <c r="D290" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="12">
+      <c r="E290" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="12">
+      <c r="F290" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="12">
+      <c r="G290" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="12">
+      <c r="H290" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="12">
+      <c r="I290" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8617,10 +8635,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="12" t="s">
+      <c r="J292" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8664,28 +8682,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="12">
+      <c r="A294" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="12">
+      <c r="B294" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="12">
+      <c r="C294" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="12">
+      <c r="E294" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="12">
+      <c r="F294" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="12">
+      <c r="G294" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="12">
+      <c r="H294" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8710,28 +8728,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="12">
+      <c r="B296" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="12">
+      <c r="C296" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="12">
+      <c r="D296" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="12">
+      <c r="E296" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="12">
+      <c r="F296" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="12">
+      <c r="G296" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="12">
+      <c r="H296" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="12">
+      <c r="I296" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8790,10 +8808,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="12" t="s">
+      <c r="J298" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8837,28 +8855,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="12">
+      <c r="A300" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="12">
+      <c r="B300" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="12">
+      <c r="C300" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="12">
+      <c r="E300" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="12">
+      <c r="F300" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="12">
+      <c r="G300" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="12">
+      <c r="H300" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -8883,28 +8901,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="12">
+      <c r="B302" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="12">
+      <c r="C302" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="12">
+      <c r="D302" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="12">
+      <c r="E302" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="12">
+      <c r="F302" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="12">
+      <c r="G302" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="12">
+      <c r="H302" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="12">
+      <c r="I302" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -8963,10 +8981,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="12" t="s">
+      <c r="J304" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -9010,28 +9028,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="12">
+      <c r="A306" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="12">
+      <c r="B306" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="12">
+      <c r="C306" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="12">
+      <c r="E306" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="12">
+      <c r="F306" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="12">
+      <c r="G306" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="12">
+      <c r="H306" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9056,28 +9074,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="12">
+      <c r="B308" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="12">
+      <c r="C308" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="12">
+      <c r="D308" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="12">
+      <c r="E308" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="12">
+      <c r="F308" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="12">
+      <c r="G308" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="12">
+      <c r="H308" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="12">
+      <c r="I308" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9165,10 +9183,10 @@
       <c r="I311">
         <f>((C311-C310)^2+(D311- D310)^2)^.5</f>
       </c>
-      <c r="J311" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K311" s="12" t="s">
+      <c r="J311" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K311" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L311" t="n">
@@ -9212,28 +9230,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="s" s="12">
+      <c r="A313" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B313" t="s" s="12">
+      <c r="B313" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C313" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D313" t="s" s="12">
+      <c r="C313" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D313" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E313" t="s" s="12">
+      <c r="E313" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F313" t="s" s="12">
+      <c r="F313" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G313" t="s" s="12">
+      <c r="G313" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H313" t="s" s="12">
+      <c r="H313" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9258,28 +9276,28 @@
       </c>
     </row>
     <row r="315">
-      <c r="B315" t="s" s="12">
+      <c r="B315" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C315" t="s" s="12">
+      <c r="C315" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D315" t="s" s="12">
+      <c r="D315" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E315" t="s" s="12">
+      <c r="E315" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F315" t="s" s="12">
+      <c r="F315" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G315" t="s" s="12">
+      <c r="G315" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H315" t="s" s="12">
+      <c r="H315" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I315" t="s" s="12">
+      <c r="I315" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9338,10 +9356,10 @@
       <c r="I317">
         <f>((C317-C316)^2+(D317- D316)^2)^.5</f>
       </c>
-      <c r="J317" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K317" s="12" t="s">
+      <c r="J317" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K317" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L317" t="n">
@@ -9385,28 +9403,28 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="s" s="12">
+      <c r="A319" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B319" t="s" s="12">
+      <c r="B319" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C319" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D319" t="s" s="12">
+      <c r="C319" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D319" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E319" t="s" s="12">
+      <c r="E319" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F319" t="s" s="12">
+      <c r="F319" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G319" t="s" s="12">
+      <c r="G319" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H319" t="s" s="12">
+      <c r="H319" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9431,28 +9449,28 @@
       </c>
     </row>
     <row r="321">
-      <c r="B321" t="s" s="12">
+      <c r="B321" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C321" t="s" s="12">
+      <c r="C321" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D321" t="s" s="12">
+      <c r="D321" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E321" t="s" s="12">
+      <c r="E321" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F321" t="s" s="12">
+      <c r="F321" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G321" t="s" s="12">
+      <c r="G321" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H321" t="s" s="12">
+      <c r="H321" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I321" t="s" s="12">
+      <c r="I321" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9511,10 +9529,10 @@
       <c r="I323">
         <f>((C323-C322)^2+(D323- D322)^2)^.5</f>
       </c>
-      <c r="J323" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K323" s="12" t="s">
+      <c r="J323" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K323" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L323" t="n">
@@ -9558,28 +9576,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="s" s="12">
+      <c r="A325" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B325" t="s" s="12">
+      <c r="B325" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C325" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D325" t="s" s="12">
+      <c r="C325" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D325" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E325" t="s" s="12">
+      <c r="E325" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F325" t="s" s="12">
+      <c r="F325" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G325" t="s" s="12">
+      <c r="G325" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H325" t="s" s="12">
+      <c r="H325" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9604,28 +9622,28 @@
       </c>
     </row>
     <row r="327">
-      <c r="B327" t="s" s="12">
+      <c r="B327" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C327" t="s" s="12">
+      <c r="C327" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D327" t="s" s="12">
+      <c r="D327" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E327" t="s" s="12">
+      <c r="E327" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F327" t="s" s="12">
+      <c r="F327" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G327" t="s" s="12">
+      <c r="G327" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H327" t="s" s="12">
+      <c r="H327" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I327" t="s" s="12">
+      <c r="I327" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9684,10 +9702,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="12" t="s">
+      <c r="J329" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9731,28 +9749,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="12">
+      <c r="A331" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="12">
+      <c r="B331" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="12">
+      <c r="C331" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="12">
+      <c r="E331" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="12">
+      <c r="F331" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="12">
+      <c r="G331" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="12">
+      <c r="H331" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9777,28 +9795,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="12">
+      <c r="B333" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="12">
+      <c r="C333" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="12">
+      <c r="D333" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="12">
+      <c r="E333" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="12">
+      <c r="F333" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="12">
+      <c r="G333" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="12">
+      <c r="H333" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="12">
+      <c r="I333" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -9857,10 +9875,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="12" t="s">
+      <c r="J335" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9904,28 +9922,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="12">
+      <c r="A337" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="12">
+      <c r="B337" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="12">
+      <c r="C337" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="12">
+      <c r="E337" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="12">
+      <c r="F337" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="12">
+      <c r="G337" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="12">
+      <c r="H337" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -9950,28 +9968,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="12">
+      <c r="B339" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="12">
+      <c r="C339" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="12">
+      <c r="D339" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="12">
+      <c r="E339" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="12">
+      <c r="F339" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="12">
+      <c r="G339" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="12">
+      <c r="H339" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="12">
+      <c r="I339" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10030,10 +10048,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="12" t="s">
+      <c r="J341" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10077,28 +10095,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="12">
+      <c r="A343" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="12">
+      <c r="B343" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="12">
+      <c r="C343" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="12">
+      <c r="E343" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="12">
+      <c r="F343" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="12">
+      <c r="G343" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="12">
+      <c r="H343" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10123,28 +10141,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="12">
+      <c r="B345" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="12">
+      <c r="C345" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="12">
+      <c r="D345" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="12">
+      <c r="E345" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="12">
+      <c r="F345" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="12">
+      <c r="G345" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="12">
+      <c r="H345" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="12">
+      <c r="I345" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10203,10 +10221,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="12" t="s">
+      <c r="J347" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10250,28 +10268,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="12">
+      <c r="A349" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="12">
+      <c r="B349" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="12">
+      <c r="C349" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="12">
+      <c r="E349" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="12">
+      <c r="F349" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="12">
+      <c r="G349" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="12">
+      <c r="H349" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10296,28 +10314,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="12">
+      <c r="B351" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="12">
+      <c r="C351" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="12">
+      <c r="D351" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="12">
+      <c r="E351" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="12">
+      <c r="F351" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="12">
+      <c r="G351" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="12">
+      <c r="H351" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="12">
+      <c r="I351" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10376,10 +10394,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="12" t="s">
+      <c r="J353" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10423,28 +10441,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="12">
+      <c r="A355" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="12">
+      <c r="B355" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="12">
+      <c r="C355" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="12">
+      <c r="E355" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="12">
+      <c r="F355" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="12">
+      <c r="G355" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="12">
+      <c r="H355" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10469,28 +10487,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="12">
+      <c r="B357" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="12">
+      <c r="C357" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="12">
+      <c r="D357" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="12">
+      <c r="E357" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="12">
+      <c r="F357" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="12">
+      <c r="G357" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="12">
+      <c r="H357" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="12">
+      <c r="I357" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10578,10 +10596,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="12" t="s">
+      <c r="J360" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10625,28 +10643,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="12">
+      <c r="A362" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="12">
+      <c r="B362" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="12">
+      <c r="C362" t="s" s="15">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="15">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="12">
+      <c r="E362" t="s" s="15">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="12">
+      <c r="F362" t="s" s="15">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="12">
+      <c r="G362" t="s" s="15">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="12">
+      <c r="H362" t="s" s="15">
         <v>16</v>
       </c>
     </row>
@@ -10671,28 +10689,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="12">
+      <c r="B364" t="s" s="15">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="12">
+      <c r="C364" t="s" s="15">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="12">
+      <c r="D364" t="s" s="15">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="12">
+      <c r="E364" t="s" s="15">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="12">
+      <c r="F364" t="s" s="15">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="12">
+      <c r="G364" t="s" s="15">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="12">
+      <c r="H364" t="s" s="15">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="12">
+      <c r="I364" t="s" s="15">
         <v>11</v>
       </c>
     </row>
@@ -10751,10 +10769,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="12" t="s">
+      <c r="J366" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="15" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
